--- a/data/dataPIC.xlsx
+++ b/data/dataPIC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\4 ano\Orientada a obeto\ProjetoSemestral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55C840-D7DB-4EBD-851F-BBAF3E00EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E5F52-0346-4F30-95B2-B15447096835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4530" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81F795B2-7D25-410F-B549-1443F4A4C9AB}"/>
   </bookViews>
@@ -9960,915 +9960,913 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Velocidade!$A$1:$A$301</c:f>
-              <c:strCache>
-                <c:ptCount val="301"/>
+            <c:numRef>
+              <c:f>Velocidade!$A$2:$A$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>Tempo</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,07</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,13</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,14</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,16</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,17</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0,19</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0,2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0,21</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0,22</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0,23</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0,24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0,25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0,26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0,27</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0,28</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0,29</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0,3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,32</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,33</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0,34</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0,35</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0,36</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0,37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0,38</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0,39</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0,4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0,41</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0,42</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0,43</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0,44</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0,45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0,46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0,47</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0,48</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0,49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0,5</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0,51</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0,52</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0,53</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0,54</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0,55</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0,56</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0,57</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0,58</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0,59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0,6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0,61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0,62</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0,63</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0,64</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0,65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0,66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0,67</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0,68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0,69</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0,7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0,71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0,72</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0,73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0,74</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0,75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0,76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0,77</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0,78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0,79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0,8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0,81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0,82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0,83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0,84</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0,85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0,86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0,87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0,88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0,89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0,9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0,91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0,92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0,93</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0,94</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0,95</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0,96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0,97</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0,98</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0,99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1,01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1,02</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1,03</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1,04</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1,05</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1,06</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1,07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1,08</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1,09</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1,1</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1,11</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1,12</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1,13</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1,14</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1,15</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1,16</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1,17</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1,18</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1,19</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1,2</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1,21</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1,22</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1,23</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1,24</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1,25</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1,26</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1,27</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1,28</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1,29</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1,3</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1,31</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1,32</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1,33</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1,34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1,35</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1,36</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1,37</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1,38</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1,39</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1,4</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1,41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1,42</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1,43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1,44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1,45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1,46</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1,47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1,48</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1,49</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1,5</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1,51</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1,52</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1,53</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1,54</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1,55</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1,56</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1,57</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1,58</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1,59</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1,6</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1,61</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1,62</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1,63</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1,64</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1,65</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1,66</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1,67</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1,68</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1,69</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1,7</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1,71</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1,72</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1,73</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1,74</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1,75</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1,76</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1,77</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1,78</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1,79</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1,8</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1,81</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1,82</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1,83</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1,84</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1,85</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1,86</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1,87</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1,88</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1,89</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1,9</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1,91</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1,92</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1,93</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1,94</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1,95</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1,96</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1,97</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1,98</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1,99</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2,01</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2,02</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2,03</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2,04</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2,05</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2,06</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2,07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2,08</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2,09</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2,1</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2,11</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2,12</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2,13</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2,14</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2,15</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2,16</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2,17</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2,18</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2,19</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2,2</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2,21</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2,22</c:v>
+                  <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2,23</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2,24</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2,25</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2,26</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2,27</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2,28</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2,29</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2,3</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2,31</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2,32</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2,33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2,34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2,35</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2,36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2,37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2,38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2,39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2,4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2,41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2,42</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2,43</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2,44</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2,45</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2,46</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2,47</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2,48</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2,49</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2,5</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2,51</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2,52</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2,53</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2,54</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2,55</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2,56</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2,57</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2,58</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2,59</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2,6</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2,61</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2,62</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2,63</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2,64</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2,65</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2,66</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2,67</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2,68</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2,69</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2,7</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2,71</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2,72</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2,73</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2,74</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2,75</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2,76</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2,77</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2,78</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2,79</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2,8</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2,81</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2,82</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2,83</c:v>
+                  <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2,84</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2,85</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2,86</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2,87</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2,88</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2,89</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2,9</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2,91</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2,92</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2,93</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2,94</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2,95</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2,96</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2,97</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2,98</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2,99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -11826,915 +11824,913 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Velocidade!$A$1:$A$301</c:f>
-              <c:strCache>
-                <c:ptCount val="301"/>
+            <c:numRef>
+              <c:f>Velocidade!$A$2:$A$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>Tempo</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,07</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,13</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,14</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,16</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,17</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0,19</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0,2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0,21</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0,22</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0,23</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0,24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0,25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0,26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0,27</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0,28</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0,29</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0,3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,32</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,33</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0,34</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0,35</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0,36</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0,37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0,38</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0,39</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0,4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0,41</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0,42</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0,43</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0,44</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0,45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0,46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0,47</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0,48</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0,49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0,5</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0,51</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0,52</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0,53</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0,54</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0,55</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0,56</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0,57</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0,58</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0,59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0,6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0,61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0,62</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0,63</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0,64</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0,65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0,66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0,67</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0,68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0,69</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0,7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0,71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0,72</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0,73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0,74</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0,75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0,76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0,77</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0,78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0,79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0,8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0,81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0,82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0,83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0,84</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0,85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0,86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0,87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0,88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0,89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0,9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0,91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0,92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0,93</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0,94</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0,95</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0,96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0,97</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0,98</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0,99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1,01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1,02</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1,03</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1,04</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1,05</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1,06</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1,07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1,08</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1,09</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1,1</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1,11</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1,12</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1,13</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1,14</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1,15</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1,16</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1,17</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1,18</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1,19</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1,2</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1,21</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1,22</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1,23</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1,24</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1,25</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1,26</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1,27</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1,28</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1,29</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1,3</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1,31</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1,32</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1,33</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1,34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1,35</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1,36</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1,37</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1,38</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1,39</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1,4</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1,41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1,42</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1,43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1,44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1,45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1,46</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1,47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1,48</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1,49</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1,5</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1,51</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1,52</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1,53</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1,54</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1,55</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1,56</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1,57</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1,58</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1,59</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1,6</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1,61</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1,62</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1,63</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1,64</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1,65</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1,66</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1,67</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1,68</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1,69</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1,7</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1,71</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1,72</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1,73</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1,74</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1,75</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1,76</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1,77</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1,78</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1,79</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1,8</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1,81</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1,82</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1,83</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1,84</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1,85</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1,86</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1,87</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1,88</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1,89</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1,9</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1,91</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1,92</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1,93</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1,94</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1,95</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1,96</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1,97</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1,98</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1,99</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2,01</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2,02</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2,03</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2,04</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2,05</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2,06</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2,07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2,08</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2,09</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2,1</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2,11</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2,12</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2,13</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2,14</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2,15</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2,16</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2,17</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2,18</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2,19</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2,2</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2,21</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2,22</c:v>
+                  <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2,23</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2,24</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2,25</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2,26</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2,27</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2,28</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2,29</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2,3</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2,31</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2,32</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2,33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2,34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2,35</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2,36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2,37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2,38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2,39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2,4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2,41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2,42</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2,43</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2,44</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2,45</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2,46</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2,47</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2,48</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2,49</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2,5</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2,51</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2,52</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2,53</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2,54</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2,55</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2,56</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2,57</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2,58</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2,59</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2,6</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2,61</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2,62</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2,63</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2,64</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2,65</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2,66</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2,67</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2,68</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2,69</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2,7</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2,71</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2,72</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2,73</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2,74</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2,75</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2,76</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2,77</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2,78</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2,79</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2,8</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2,81</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2,82</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2,83</c:v>
+                  <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2,84</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2,85</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2,86</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2,87</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2,88</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2,89</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2,9</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2,91</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2,92</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2,93</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2,94</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2,95</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2,96</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2,97</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2,98</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2,99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -13692,915 +13688,913 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Velocidade!$A$1:$A$301</c:f>
-              <c:strCache>
-                <c:ptCount val="301"/>
+            <c:numRef>
+              <c:f>Velocidade!$A$2:$A$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>Tempo</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,07</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,13</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,14</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,16</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,17</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0,19</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0,2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0,21</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0,22</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0,23</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0,24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0,25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0,26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0,27</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0,28</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0,29</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0,3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,32</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,33</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0,34</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0,35</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0,36</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0,37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0,38</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0,39</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0,4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0,41</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0,42</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0,43</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0,44</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0,45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0,46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0,47</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0,48</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0,49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0,5</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0,51</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0,52</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0,53</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0,54</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0,55</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0,56</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0,57</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0,58</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0,59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0,6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0,61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0,62</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0,63</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0,64</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0,65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0,66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0,67</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0,68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0,69</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0,7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0,71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0,72</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0,73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0,74</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0,75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0,76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0,77</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0,78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0,79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0,8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0,81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0,82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0,83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0,84</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0,85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0,86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0,87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0,88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0,89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0,9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0,91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0,92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0,93</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0,94</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0,95</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0,96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0,97</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0,98</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0,99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1,01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1,02</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1,03</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1,04</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1,05</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1,06</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1,07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1,08</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1,09</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1,1</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1,11</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1,12</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1,13</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1,14</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1,15</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1,16</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1,17</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1,18</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1,19</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1,2</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1,21</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1,22</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1,23</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1,24</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1,25</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1,26</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1,27</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1,28</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1,29</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1,3</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1,31</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1,32</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1,33</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1,34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1,35</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1,36</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1,37</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1,38</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1,39</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1,4</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1,41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1,42</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1,43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1,44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1,45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1,46</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1,47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1,48</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1,49</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1,5</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1,51</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1,52</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1,53</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1,54</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1,55</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1,56</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1,57</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1,58</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1,59</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1,6</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1,61</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1,62</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1,63</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1,64</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1,65</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1,66</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1,67</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1,68</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1,69</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1,7</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1,71</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1,72</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1,73</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1,74</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1,75</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1,76</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1,77</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1,78</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1,79</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1,8</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1,81</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1,82</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1,83</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1,84</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1,85</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1,86</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1,87</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1,88</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1,89</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1,9</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1,91</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1,92</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1,93</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1,94</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1,95</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1,96</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1,97</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1,98</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1,99</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2,01</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2,02</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2,03</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2,04</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2,05</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2,06</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2,07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2,08</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2,09</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2,1</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2,11</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2,12</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2,13</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2,14</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2,15</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2,16</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2,17</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2,18</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2,19</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2,2</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2,21</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2,22</c:v>
+                  <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2,23</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2,24</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2,25</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2,26</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2,27</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2,28</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2,29</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2,3</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2,31</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2,32</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2,33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2,34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2,35</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2,36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2,37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2,38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2,39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2,4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2,41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2,42</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2,43</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2,44</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2,45</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2,46</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2,47</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2,48</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2,49</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2,5</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2,51</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2,52</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2,53</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2,54</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2,55</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2,56</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2,57</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2,58</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2,59</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2,6</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2,61</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2,62</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2,63</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2,64</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2,65</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2,66</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2,67</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2,68</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2,69</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2,7</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2,71</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2,72</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2,73</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2,74</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2,75</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2,76</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2,77</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2,78</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2,79</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2,8</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2,81</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2,82</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2,83</c:v>
+                  <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2,84</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2,85</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2,86</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2,87</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2,88</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2,89</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2,9</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2,91</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2,92</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2,93</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2,94</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2,95</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2,96</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2,97</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2,98</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2,99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -15558,915 +15552,913 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Velocidade!$A$1:$A$301</c:f>
-              <c:strCache>
-                <c:ptCount val="301"/>
+            <c:numRef>
+              <c:f>Velocidade!$A$2:$A$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>Tempo</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,07</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,13</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,14</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,16</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,17</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0,19</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0,2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0,21</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0,22</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0,23</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0,24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0,25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0,26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0,27</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0,28</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0,29</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0,3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,32</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,33</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0,34</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0,35</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0,36</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0,37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0,38</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0,39</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0,4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0,41</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0,42</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0,43</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0,44</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0,45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0,46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0,47</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0,48</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0,49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0,5</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0,51</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0,52</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0,53</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0,54</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0,55</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0,56</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0,57</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0,58</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0,59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0,6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0,61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0,62</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0,63</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0,64</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0,65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0,66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0,67</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0,68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0,69</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0,7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0,71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0,72</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0,73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0,74</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0,75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0,76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0,77</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0,78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0,79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0,8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0,81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0,82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0,83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0,84</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0,85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0,86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0,87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0,88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0,89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0,9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0,91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0,92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0,93</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0,94</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0,95</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0,96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0,97</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0,98</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0,99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1,01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1,02</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1,03</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1,04</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1,05</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1,06</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1,07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1,08</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1,09</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1,1</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1,11</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1,12</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1,13</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1,14</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1,15</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1,16</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1,17</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1,18</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1,19</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1,2</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1,21</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1,22</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1,23</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1,24</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1,25</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1,26</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1,27</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1,28</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1,29</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1,3</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1,31</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1,32</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1,33</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1,34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1,35</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1,36</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1,37</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1,38</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1,39</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1,4</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1,41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1,42</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1,43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1,44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1,45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1,46</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1,47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1,48</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1,49</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1,5</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1,51</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1,52</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1,53</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1,54</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1,55</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1,56</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1,57</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1,58</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1,59</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1,6</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1,61</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1,62</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1,63</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1,64</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1,65</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1,66</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1,67</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1,68</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1,69</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1,7</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1,71</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1,72</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1,73</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1,74</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1,75</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1,76</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1,77</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1,78</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1,79</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1,8</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1,81</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1,82</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1,83</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1,84</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1,85</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1,86</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1,87</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1,88</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1,89</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1,9</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1,91</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1,92</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1,93</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1,94</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1,95</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1,96</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1,97</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1,98</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1,99</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2,01</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2,02</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2,03</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2,04</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2,05</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2,06</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2,07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2,08</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2,09</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2,1</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2,11</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2,12</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2,13</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2,14</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2,15</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2,16</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2,17</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2,18</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2,19</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2,2</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2,21</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2,22</c:v>
+                  <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2,23</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2,24</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2,25</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2,26</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2,27</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2,28</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2,29</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2,3</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2,31</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2,32</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2,33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2,34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2,35</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2,36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2,37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2,38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2,39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2,4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2,41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2,42</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2,43</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2,44</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2,45</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2,46</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2,47</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2,48</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2,49</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2,5</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2,51</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2,52</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2,53</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2,54</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2,55</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2,56</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2,57</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2,58</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2,59</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2,6</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2,61</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2,62</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2,63</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2,64</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2,65</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2,66</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2,67</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2,68</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2,69</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2,7</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2,71</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2,72</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2,73</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2,74</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2,75</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2,76</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2,77</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2,78</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2,79</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2,8</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2,81</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2,82</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2,83</c:v>
+                  <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2,84</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2,85</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2,86</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2,87</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2,88</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2,89</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2,9</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2,91</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2,92</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2,93</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2,94</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2,95</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2,96</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2,97</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2,98</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2,99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -17424,915 +17416,913 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Velocidade!$A$1:$A$301</c:f>
-              <c:strCache>
-                <c:ptCount val="301"/>
+            <c:numRef>
+              <c:f>Velocidade!$A$2:$A$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>Tempo</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,07</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,13</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,14</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,16</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,17</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0,19</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0,2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0,21</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0,22</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0,23</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0,24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0,25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0,26</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0,27</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0,28</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0,29</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0,3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0,31</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0,32</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,33</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0,34</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0,35</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0,36</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0,37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0,38</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0,39</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0,4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0,41</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0,42</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0,43</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0,44</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0,45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0,46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0,47</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0,48</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0,49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0,5</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0,51</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0,52</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0,53</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0,54</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0,55</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0,56</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0,57</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0,58</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0,59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0,6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0,61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0,62</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0,63</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0,64</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0,65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0,66</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0,67</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0,68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0,69</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0,7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0,71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0,72</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0,73</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0,74</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0,75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0,76</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0,77</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0,78</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0,79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0,8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0,81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0,82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0,83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0,84</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0,85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0,86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0,87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0,88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0,89</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0,9</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0,91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0,92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0,93</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0,94</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0,95</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0,96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0,97</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0,98</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0,99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1,01</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1,02</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1,03</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1,04</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1,05</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1,06</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1,07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1,08</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1,09</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1,1</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1,11</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1,12</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1,13</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1,14</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1,15</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1,16</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1,17</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1,18</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1,19</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1,2</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1,21</c:v>
+                  <c:v>1.22</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1,22</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1,23</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1,24</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1,25</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1,26</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1,27</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1,28</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1,29</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1,3</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1,31</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1,32</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1,33</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1,34</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1,35</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1,36</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1,37</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1,38</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1,39</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1,4</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1,41</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1,42</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1,43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1,44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1,45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1,46</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1,47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1,48</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1,49</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1,5</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1,51</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1,52</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1,53</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1,54</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1,55</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1,56</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1,57</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1,58</c:v>
+                  <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1,59</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1,6</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1,61</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1,62</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1,63</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1,64</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1,65</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1,66</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1,67</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1,68</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1,69</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1,7</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1,71</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1,72</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1,73</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1,74</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1,75</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1,76</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1,77</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1,78</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1,79</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1,8</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1,81</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1,82</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1,83</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1,84</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1,85</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1,86</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1,87</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1,88</c:v>
+                  <c:v>1.89</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1,89</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1,9</c:v>
+                  <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1,91</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1,92</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1,93</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1,94</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1,95</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1,96</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1,97</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1,98</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1,99</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2,01</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2,02</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2,03</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2,04</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2,05</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2,06</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2,07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2,08</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2,09</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2,1</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2,11</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2,12</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2,13</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2,14</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2,15</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2,16</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2,17</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2,18</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2,19</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2,2</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2,21</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2,22</c:v>
+                  <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2,23</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2,24</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2,25</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2,26</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2,27</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2,28</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2,29</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2,3</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2,31</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2,32</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2,33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2,34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2,35</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2,36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2,37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2,38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2,39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2,4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2,41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2,42</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2,43</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2,44</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2,45</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2,46</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2,47</c:v>
+                  <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2,48</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2,49</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2,5</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2,51</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2,52</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2,53</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2,54</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2,55</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2,56</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2,57</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2,58</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2,59</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2,6</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2,61</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2,62</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2,63</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2,64</c:v>
+                  <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2,65</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2,66</c:v>
+                  <c:v>2.67</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2,67</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2,68</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2,69</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2,7</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2,71</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2,72</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2,73</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2,74</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2,75</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2,76</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2,77</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2,78</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2,79</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2,8</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2,81</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2,82</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2,83</c:v>
+                  <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2,84</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2,85</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2,86</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2,87</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2,88</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2,89</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2,9</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2,91</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2,92</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2,93</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2,94</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2,95</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2,96</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2,97</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2,98</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2,99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -27150,7 +27140,7 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
